--- a/AutomationFramework/TestCase.xlsx
+++ b/AutomationFramework/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>Keyword</t>
   </si>
@@ -246,6 +246,36 @@
   </si>
   <si>
     <t>Thu Feb 16 22:02:09 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:35:10 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:35:15 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:35:44 IST 2017</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 23:31:17 IST 2017</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 23:31:19 IST 2017</t>
+  </si>
+  <si>
+    <t>Fri Feb 17 23:31:46 IST 2017</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 23:22:50 IST 2017</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 23:22:52 IST 2017</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 23:22:53 IST 2017</t>
+  </si>
+  <si>
+    <t>Mon Feb 20 23:23:50 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -354,7 +384,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -381,6 +411,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -759,11 +801,11 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="70" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -773,11 +815,11 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -787,11 +829,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -801,11 +843,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/TestCase.xlsx
+++ b/AutomationFramework/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
   <si>
     <t>Keyword</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Mon Feb 20 23:23:50 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 00:15:42 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 00:15:43 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 00:16:03 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -411,6 +420,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -801,11 +814,11 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="74" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -815,11 +828,11 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -829,11 +842,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="76" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -843,11 +856,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="77" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/TestCase.xlsx
+++ b/AutomationFramework/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
   <si>
     <t>Keyword</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>Tue Feb 21 00:16:03 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 23:28:09 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 23:28:10 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 21 23:28:39 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:16:09 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:16:31 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:17:46 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:20:16 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:20:17 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:20:18 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 22 00:21:13 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -310,7 +340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +375,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -393,7 +433,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -480,6 +520,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -814,11 +867,11 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="87" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -828,11 +881,11 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="88" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -842,11 +895,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="89" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -856,11 +909,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="90" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1169,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
-    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId38"/>
+    <hyperlink ref="E7" r:id="rId39"/>
+    <hyperlink ref="E10" r:id="rId40"/>
+    <hyperlink ref="E14" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/AutomationFramework/TestCase.xlsx
+++ b/AutomationFramework/TestCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Suit" sheetId="2" r:id="rId1"/>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId2"/>
+    <sheet name="Recipient" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Keyword</t>
   </si>
@@ -128,193 +129,34 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Wed Feb 15 23:56:50 IST 2017</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:57:19 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:57:20 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:57:33 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 00:00:27 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 00:00:28 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 00:00:53 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:51:38 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:51:39 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:51:40 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:52:19 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:53:50 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 20:54:29 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:13:23 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:13:24 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:13:46 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:21:27 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:21:28 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:21:51 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:25:50 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:26:11 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:32:05 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:32:06 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:32:28 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:35:29 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:35:30 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:35:52 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:39:52 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:39:53 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:40:16 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:50:28 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:50:29 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 21:50:53 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:00:07 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:00:08 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:00:32 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:01:45 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:01:46 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:02:09 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:35:10 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:35:15 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 22:35:44 IST 2017</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 23:31:17 IST 2017</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 23:31:19 IST 2017</t>
-  </si>
-  <si>
-    <t>Fri Feb 17 23:31:46 IST 2017</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 23:22:50 IST 2017</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 23:22:52 IST 2017</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 23:22:53 IST 2017</t>
-  </si>
-  <si>
-    <t>Mon Feb 20 23:23:50 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 00:15:42 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 00:15:43 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 00:16:03 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 23:28:09 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 23:28:10 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 21 23:28:39 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:16:09 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:16:31 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:17:46 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:20:16 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:20:17 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:20:18 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 22 00:21:13 IST 2017</t>
+    <t>Thu Mar 02 23:39:35 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Mar 02 23:39:36 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Mar 02 23:40:06 IST 2017</t>
+  </si>
+  <si>
+    <t>osgoyal@gmail.com</t>
+  </si>
+  <si>
+    <t>Recipient List (TO)</t>
+  </si>
+  <si>
+    <t>Recipient List (CC)</t>
+  </si>
+  <si>
+    <t>Recipient List (BCC)</t>
+  </si>
+  <si>
+    <t>Add email address below</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>mechin2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -340,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,27 +207,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="54"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -433,7 +256,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -457,86 +280,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -834,16 +583,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="26.85546875" collapsed="true"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -867,11 +616,11 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -881,11 +630,11 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -895,11 +644,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -909,11 +658,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -932,14 +681,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="31.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -1169,12 +918,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId38"/>
-    <hyperlink ref="E7" r:id="rId39"/>
-    <hyperlink ref="E10" r:id="rId40"/>
-    <hyperlink ref="E14" r:id="rId41"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationFramework/TestCase.xlsx
+++ b/AutomationFramework/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Keyword</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>mechin2@gmail.com</t>
+  </si>
+  <si>
+    <t>Tue Mar 07 22:11:10 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Mar 07 22:11:11 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Mar 07 22:11:42 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +218,16 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -256,7 +275,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -286,6 +305,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -616,11 +639,11 @@
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -630,11 +653,11 @@
       <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -644,11 +667,11 @@
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -658,11 +681,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -681,14 +704,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -938,9 +961,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
